--- a/static/Media/SampleExcels/marksheet.xlsx
+++ b/static/Media/SampleExcels/marksheet.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>AcademicYearId</t>
-  </si>
-  <si>
-    <t>ClassId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Status</t>
   </si>
@@ -41,32 +35,50 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Exam</t>
-  </si>
-  <si>
     <t>ObtainedMarks</t>
   </si>
   <si>
     <t>SchoolCode</t>
+  </si>
+  <si>
+    <t>OutOfMarks</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>SubName</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>PPS001</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>PPS002</t>
+  </si>
+  <si>
+    <t>PPS003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -101,12 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,74 +398,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/static/Media/SampleExcels/marksheet.xlsx
+++ b/static/Media/SampleExcels/marksheet.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\OneRoof\SchoolERP\schoolerp\static\Media\SampleExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School  ERP\schoolerp\static\Media\SampleExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,54 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>RollNo</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>ObtainedMarks</t>
   </si>
   <si>
-    <t>SchoolCode</t>
-  </si>
-  <si>
-    <t>OutOfMarks</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>SubName</t>
   </si>
   <si>
-    <t>maths</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>PPS001</t>
-  </si>
-  <si>
-    <t>JA</t>
-  </si>
-  <si>
-    <t>PPS002</t>
-  </si>
-  <si>
-    <t>PPS003</t>
+    <t>student Code</t>
+  </si>
+  <si>
+    <t>paperType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PEMHS005/0001</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>practical</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>marathi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +75,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,8 +88,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,13 +103,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,12 +410,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
     <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
@@ -420,91 +429,58 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
